--- a/LF/PreTAS/Ivory Coast/2023/ci_lf_pretas_3_resultat_fts_202302.xlsx
+++ b/LF/PreTAS/Ivory Coast/2023/ci_lf_pretas_3_resultat_fts_202302.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\LF\PreTAS\Ivory Coast\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C86E15-7AE9-4626-A2BB-EAD1536AAAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9367CF08-ED31-471E-A2BF-52C703E072C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,12 +254,6 @@
     <t>Ligne.temoin.discontinue/partielle</t>
   </si>
   <si>
-    <t>Difficulte.d’absorption.d’echantillon</t>
-  </si>
-  <si>
-    <t>Difficulte.de.migration.d’echantillon</t>
-  </si>
-  <si>
     <t>Trace.de.sang.persiste.(sang.reste.sur.la.bandelette/a.obscurci.les.lignes)</t>
   </si>
   <si>
@@ -644,9 +638,6 @@
     <t>MEBIFON</t>
   </si>
   <si>
-    <t>N'CHONONKOI</t>
-  </si>
-  <si>
     <t>TAHIBLY</t>
   </si>
   <si>
@@ -701,9 +692,6 @@
     <t>MEBIFON (114)</t>
   </si>
   <si>
-    <t>N'CHONONKOI (115)</t>
-  </si>
-  <si>
     <t>TAHIBLY (116)</t>
   </si>
   <si>
@@ -714,6 +702,18 @@
   </si>
   <si>
     <t>WENEDOUGOU (119)</t>
+  </si>
+  <si>
+    <t>N.CHONONKOI</t>
+  </si>
+  <si>
+    <t>N.CHONONKOI (115)</t>
+  </si>
+  <si>
+    <t>Difficulte.d.absorption.d.echantillon</t>
+  </si>
+  <si>
+    <t>Difficulte.de.migration.d.echantillon</t>
   </si>
 </sst>
 </file>
@@ -1322,7 +1322,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
@@ -1339,7 +1339,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>22</v>
@@ -1349,10 +1349,10 @@
         <v>65</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K2" s="23"/>
       <c r="L2" s="19"/>
@@ -1365,17 +1365,17 @@
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="19"/>
@@ -1393,20 +1393,20 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="19"/>
       <c r="H4" s="23"/>
@@ -1420,32 +1420,32 @@
       <c r="N4" s="23"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="23"/>
       <c r="I5" s="25"/>
       <c r="J5" s="26"/>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="14" t="s">
@@ -1454,38 +1454,38 @@
       <c r="N5" s="23"/>
       <c r="O5" s="14"/>
       <c r="P5" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="E6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="F6" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
       <c r="K6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M6" t="s">
         <v>64</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
@@ -1493,29 +1493,29 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>155</v>
-      </c>
-      <c r="I7" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>157</v>
       </c>
       <c r="K7" s="29"/>
       <c r="L7" s="29"/>
@@ -1531,29 +1531,29 @@
         <v>23</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>160</v>
-      </c>
       <c r="F8" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
@@ -1569,25 +1569,25 @@
         <v>23</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -1600,17 +1600,17 @@
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -1630,14 +1630,14 @@
         <v>26</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="15"/>
@@ -1646,7 +1646,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="15"/>
       <c r="L11" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M11" s="14" t="s">
         <v>64</v>
@@ -1659,17 +1659,17 @@
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="15"/>
@@ -1690,14 +1690,14 @@
         <v>26</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F13" s="26"/>
       <c r="G13" s="14"/>
@@ -1718,19 +1718,19 @@
         <v>51</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -1750,7 +1750,7 @@
         <v>63</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>42</v>
@@ -1765,7 +1765,7 @@
       <c r="I15" s="27"/>
       <c r="J15" s="26"/>
       <c r="K15" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="14" t="s">
@@ -1780,14 +1780,14 @@
         <v>32</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>71</v>
@@ -1797,7 +1797,7 @@
       <c r="I16" s="27"/>
       <c r="J16" s="26"/>
       <c r="K16" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L16" s="15"/>
       <c r="M16" s="14" t="s">
@@ -1809,23 +1809,23 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>149</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>151</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="32"/>
       <c r="I17" s="33"/>
       <c r="J17" s="32"/>
       <c r="K17" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="1" t="s">
@@ -1840,10 +1840,10 @@
         <v>43</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1873,8 +1873,8 @@
   <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A64" activeCellId="3" sqref="A58:XFD58 A60:XFD60 A62:XFD62 A64:XFD64"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B12:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1902,13 +1902,13 @@
         <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>96</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,30 +1950,30 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" t="s">
         <v>174</v>
-      </c>
-      <c r="B5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2037,13 +2037,13 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>62</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>52</v>
@@ -2079,7 +2079,7 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>54</v>
@@ -2093,7 +2093,7 @@
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>227</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>55</v>
@@ -2107,7 +2107,7 @@
         <v>62</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>56</v>
@@ -2121,7 +2121,7 @@
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>57</v>
@@ -2146,720 +2146,720 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" t="s">
         <v>108</v>
       </c>
-      <c r="C19" t="s">
-        <v>110</v>
-      </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
-        <v>111</v>
-      </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E30" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H35" s="1"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H36" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H37" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H38" s="1"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H39" s="1"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H40" s="1"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H41" s="1"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H42" s="1"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H43" s="1"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H44" s="1"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H45" s="1"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H46" s="1"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H47" s="1"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H48" s="1"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H49" s="1"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H50" s="1"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H51" s="1"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H52" s="1"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H53" s="1"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H54" s="1"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H55" s="1"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H56" s="1"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H60" s="1"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B62" s="1">
         <v>101</v>
@@ -2872,12 +2872,12 @@
       </c>
       <c r="E62" s="1"/>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="1">
         <v>102</v>
@@ -2890,12 +2890,12 @@
       </c>
       <c r="E63" s="1"/>
       <c r="G63" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B64" s="1">
         <v>103</v>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="E64" s="1"/>
       <c r="G64" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B65" s="1">
         <v>104</v>
@@ -2926,12 +2926,12 @@
       </c>
       <c r="E65" s="1"/>
       <c r="G65" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B66" s="1">
         <v>105</v>
@@ -2944,12 +2944,12 @@
       </c>
       <c r="E66" s="1"/>
       <c r="G66" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" s="1">
         <v>106</v>
@@ -2962,12 +2962,12 @@
       </c>
       <c r="E67" s="1"/>
       <c r="G67" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B68" s="1">
         <v>107</v>
@@ -2980,12 +2980,12 @@
       </c>
       <c r="E68" s="1"/>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B69" s="1">
         <v>108</v>
@@ -2998,12 +2998,12 @@
       </c>
       <c r="E69" s="1"/>
       <c r="G69" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" s="1">
         <v>109</v>
@@ -3016,12 +3016,12 @@
       </c>
       <c r="E70" s="1"/>
       <c r="G70" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B71" s="1">
         <v>110</v>
@@ -3034,12 +3034,12 @@
       </c>
       <c r="E71" s="1"/>
       <c r="G71" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B72" s="1">
         <v>111</v>
@@ -3052,12 +3052,12 @@
       </c>
       <c r="E72" s="1"/>
       <c r="G72" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B73" s="1">
         <v>112</v>
@@ -3070,12 +3070,12 @@
       </c>
       <c r="E73" s="1"/>
       <c r="G73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B74" s="1">
         <v>113</v>
@@ -3088,12 +3088,12 @@
       </c>
       <c r="E74" s="1"/>
       <c r="G74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" s="1">
         <v>114</v>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="E75" s="1"/>
       <c r="G75" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B76" s="1">
         <v>115</v>
@@ -3124,12 +3124,12 @@
       </c>
       <c r="E76" s="1"/>
       <c r="G76" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B77" s="1">
         <v>116</v>
@@ -3142,12 +3142,12 @@
       </c>
       <c r="E77" s="1"/>
       <c r="G77" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B78" s="1">
         <v>117</v>
@@ -3160,12 +3160,12 @@
       </c>
       <c r="E78" s="1"/>
       <c r="G78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B79" s="1">
         <v>118</v>
@@ -3178,12 +3178,12 @@
       </c>
       <c r="E79" s="1"/>
       <c r="G79" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B80" s="1">
         <v>119</v>
@@ -3196,330 +3196,330 @@
       </c>
       <c r="E80" s="1"/>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B82" s="1">
         <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F82" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B83" s="1">
         <v>102</v>
       </c>
       <c r="C83" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F83" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B84" s="1">
         <v>103</v>
       </c>
       <c r="C84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F84" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B85" s="1">
         <v>104</v>
       </c>
       <c r="C85" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B86" s="1">
         <v>105</v>
       </c>
       <c r="C86" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D86" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F86" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B87" s="1">
         <v>106</v>
       </c>
       <c r="C87" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B88" s="1">
         <v>107</v>
       </c>
       <c r="C88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D88" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B89" s="1">
         <v>108</v>
       </c>
       <c r="C89" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F89" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B90" s="1">
         <v>109</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F90" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B91" s="1">
         <v>110</v>
       </c>
       <c r="C91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F91" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" s="1">
         <v>111</v>
       </c>
       <c r="C92" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B93" s="1">
         <v>112</v>
       </c>
       <c r="C93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B94" s="1">
         <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D94" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1">
         <v>114</v>
       </c>
       <c r="C95" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D95" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B96" s="1">
         <v>115</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F96" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B97" s="1">
         <v>116</v>
       </c>
       <c r="C97" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B98" s="1">
         <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F98" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B99" s="1">
         <v>118</v>
       </c>
       <c r="C99" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D99" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B100" s="1">
         <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,18 +3808,18 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
